--- a/examples/VASP_to_thermdat/example2/input_data.xlsx
+++ b/examples/VASP_to_thermdat/example2/input_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\UDel Documents\UDel Research\Thermochemistry\Thermochemistry\examples\VASP_to_thermdat\example2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\UDel Documents\UDel Research\Github\PyMuTT\examples\VASP_to_thermdat\example2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239BAA5B-66C4-48F4-8813-5B0E89C043A1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CB3863-E4CD-4B71-829F-21492CFDD6A8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" xr2:uid="{06EF0325-FA90-4E6F-AA64-1284C03694B0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="70">
   <si>
     <t>Edisp</t>
   </si>
@@ -174,16 +174,10 @@
     <t>name</t>
   </si>
   <si>
-    <t>elements~C</t>
-  </si>
-  <si>
     <t>spin</t>
   </si>
   <si>
     <t>Number of H in formula unit</t>
-  </si>
-  <si>
-    <t>elements~H</t>
   </si>
   <si>
     <t>Number of C in formula unit</t>
@@ -192,169 +186,7 @@
     <t>The total electronic spin. (0 for molecules in which all electrons are paired, 0.5 for a free radical with a single unpaired electron, 1.0 for a triplet with two unpaired electrons, such as O_2.)</t>
   </si>
   <si>
-    <t>vib_wavenumber~1</t>
-  </si>
-  <si>
     <t>Vibrational wavenumber in 1/cm</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~2</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~3</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~4</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~5</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~6</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~7</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~8</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~9</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~10</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~11</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~12</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~13</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~14</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~15</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~16</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~17</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~18</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~19</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~20</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~21</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~22</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~23</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~24</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~25</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~26</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~27</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~28</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~29</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~30</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~31</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~32</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~33</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~34</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~35</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~36</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~37</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~38</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~39</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~40</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~41</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~42</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~43</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~44</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~45</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~46</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~47</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~48</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~49</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~50</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~51</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~52</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~53</t>
-  </si>
-  <si>
-    <t>vib_wavenumber~54</t>
   </si>
   <si>
     <t>notes</t>
@@ -398,6 +230,15 @@
   </si>
   <si>
     <t>Dispersion Energy in eV</t>
+  </si>
+  <si>
+    <t>elements.C</t>
+  </si>
+  <si>
+    <t>elements.H</t>
+  </si>
+  <si>
+    <t>vib_wavenumber</t>
   </si>
 </sst>
 </file>
@@ -763,10 +604,10 @@
   <dimension ref="A1:BK48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,190 +621,190 @@
         <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>120</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V1" s="1" t="s">
         <v>69</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>102</v>
+        <v>69</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>103</v>
+        <v>69</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>107</v>
+        <v>69</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="BK1" s="1" t="s">
-        <v>110</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:63" x14ac:dyDescent="0.3">
@@ -971,190 +812,190 @@
         <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="J2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AL2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AT2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AU2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AV2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AW2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AX2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AY2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AZ2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="BA2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="BB2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="BC2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="BD2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="BI2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="BJ2" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="BK2" s="2" t="s">
-        <v>111</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:63" x14ac:dyDescent="0.3">
@@ -1162,10 +1003,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D3">
         <v>6</v>
@@ -1291,7 +1132,7 @@
         <v>152.166</v>
       </c>
       <c r="BK3" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:63" x14ac:dyDescent="0.3">
@@ -1299,10 +1140,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -1428,7 +1269,7 @@
         <v>137.8295</v>
       </c>
       <c r="BK4" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:63" x14ac:dyDescent="0.3">
@@ -1436,10 +1277,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -1565,7 +1406,7 @@
         <v>137.251</v>
       </c>
       <c r="BK5" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:63" x14ac:dyDescent="0.3">
@@ -1573,10 +1414,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -1756,7 +1597,7 @@
         <v>37.912999999999997</v>
       </c>
       <c r="BK6" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.3">
@@ -1764,10 +1605,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1947,7 +1788,7 @@
         <v>28.891500000000001</v>
       </c>
       <c r="BK7" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:63" x14ac:dyDescent="0.3">
@@ -1955,10 +1796,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -2129,7 +1970,7 @@
         <v>44.8414</v>
       </c>
       <c r="BK8" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:63" x14ac:dyDescent="0.3">
@@ -2137,10 +1978,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -2311,7 +2152,7 @@
         <v>47.917900000000003</v>
       </c>
       <c r="BK9" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:63" x14ac:dyDescent="0.3">
@@ -2319,10 +2160,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -2484,7 +2325,7 @@
         <v>46.394399999999997</v>
       </c>
       <c r="BK10" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:63" x14ac:dyDescent="0.3">
@@ -2492,10 +2333,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -2657,7 +2498,7 @@
         <v>53.729199999999999</v>
       </c>
       <c r="BK11" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:63" x14ac:dyDescent="0.3">
@@ -2665,10 +2506,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D12">
         <v>6</v>
@@ -2830,7 +2671,7 @@
         <v>30.0627</v>
       </c>
       <c r="BK12" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:63" x14ac:dyDescent="0.3">
@@ -2838,10 +2679,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -3003,7 +2844,7 @@
         <v>83.607100000000003</v>
       </c>
       <c r="BK13" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:63" x14ac:dyDescent="0.3">
@@ -3011,10 +2852,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -3176,7 +3017,7 @@
         <v>85.019499999999994</v>
       </c>
       <c r="BK14" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:63" x14ac:dyDescent="0.3">
@@ -3184,10 +3025,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D15">
         <v>6</v>
@@ -3340,7 +3181,7 @@
         <v>74.797600000000003</v>
       </c>
       <c r="BK15" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:63" x14ac:dyDescent="0.3">
@@ -3348,10 +3189,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C16" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D16">
         <v>6</v>
@@ -3504,7 +3345,7 @@
         <v>74.852599999999995</v>
       </c>
       <c r="BK16" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:63" x14ac:dyDescent="0.3">
@@ -3512,10 +3353,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -3668,7 +3509,7 @@
         <v>86.275599999999997</v>
       </c>
       <c r="BK17" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:63" x14ac:dyDescent="0.3">
@@ -3676,10 +3517,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D18">
         <v>6</v>
@@ -3832,7 +3673,7 @@
         <v>81.664699999999996</v>
       </c>
       <c r="BK18" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:63" x14ac:dyDescent="0.3">
@@ -3840,10 +3681,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D19">
         <v>6</v>
@@ -3996,7 +3837,7 @@
         <v>89.915899999999993</v>
       </c>
       <c r="BK19" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:63" x14ac:dyDescent="0.3">
@@ -4004,10 +3845,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D20">
         <v>6</v>
@@ -4160,7 +4001,7 @@
         <v>84.267399999999995</v>
       </c>
       <c r="BK20" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:63" x14ac:dyDescent="0.3">
@@ -4168,10 +4009,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D21">
         <v>6</v>
@@ -4324,7 +4165,7 @@
         <v>86.304299999999998</v>
       </c>
       <c r="BK21" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:63" x14ac:dyDescent="0.3">
@@ -4332,10 +4173,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D22">
         <v>6</v>
@@ -4488,7 +4329,7 @@
         <v>88.028000000000006</v>
       </c>
       <c r="BK22" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:63" x14ac:dyDescent="0.3">
@@ -4496,10 +4337,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D23">
         <v>6</v>
@@ -4643,7 +4484,7 @@
         <v>108.803</v>
       </c>
       <c r="BK23" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:63" x14ac:dyDescent="0.3">
@@ -4651,10 +4492,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D24">
         <v>6</v>
@@ -4798,7 +4639,7 @@
         <v>103.6859</v>
       </c>
       <c r="BK24" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:63" x14ac:dyDescent="0.3">
@@ -4806,10 +4647,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D25">
         <v>6</v>
@@ -4953,7 +4794,7 @@
         <v>76.362899999999996</v>
       </c>
       <c r="BK25" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:63" x14ac:dyDescent="0.3">
@@ -4961,10 +4802,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D26">
         <v>6</v>
@@ -5108,7 +4949,7 @@
         <v>80.552800000000005</v>
       </c>
       <c r="BK26" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:63" x14ac:dyDescent="0.3">
@@ -5116,10 +4957,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D27">
         <v>6</v>
@@ -5263,7 +5104,7 @@
         <v>23.040600000000001</v>
       </c>
       <c r="BK27" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:63" x14ac:dyDescent="0.3">
@@ -5271,10 +5112,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D28">
         <v>6</v>
@@ -5427,7 +5268,7 @@
         <v>117.5966</v>
       </c>
       <c r="BK28" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:63" x14ac:dyDescent="0.3">
@@ -5435,10 +5276,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D29">
         <v>6</v>
@@ -5591,7 +5432,7 @@
         <v>119.26130000000001</v>
       </c>
       <c r="BK29" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:63" x14ac:dyDescent="0.3">
@@ -5599,10 +5440,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D30">
         <v>6</v>
@@ -5746,7 +5587,7 @@
         <v>113.20269999999999</v>
       </c>
       <c r="BK30" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:63" x14ac:dyDescent="0.3">
@@ -5754,10 +5595,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D31">
         <v>6</v>
@@ -5901,7 +5742,7 @@
         <v>117.3361</v>
       </c>
       <c r="BK31" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:63" x14ac:dyDescent="0.3">
@@ -5909,10 +5750,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D32">
         <v>6</v>
@@ -6056,7 +5897,7 @@
         <v>95.933599999999998</v>
       </c>
       <c r="BK32" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:63" x14ac:dyDescent="0.3">
@@ -6064,10 +5905,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D33">
         <v>6</v>
@@ -6211,7 +6052,7 @@
         <v>97.4846</v>
       </c>
       <c r="BK33" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:63" x14ac:dyDescent="0.3">
@@ -6219,10 +6060,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D34">
         <v>6</v>
@@ -6366,7 +6207,7 @@
         <v>104.714</v>
       </c>
       <c r="BK34" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:63" x14ac:dyDescent="0.3">
@@ -6374,10 +6215,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D35">
         <v>6</v>
@@ -6521,7 +6362,7 @@
         <v>128.59270000000001</v>
       </c>
       <c r="BK35" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:63" x14ac:dyDescent="0.3">
@@ -6529,10 +6370,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D36">
         <v>6</v>
@@ -6676,7 +6517,7 @@
         <v>110.5252</v>
       </c>
       <c r="BK36" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:63" x14ac:dyDescent="0.3">
@@ -6684,10 +6525,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C37" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D37">
         <v>6</v>
@@ -6831,7 +6672,7 @@
         <v>113.8356</v>
       </c>
       <c r="BK37" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:63" x14ac:dyDescent="0.3">
@@ -6839,10 +6680,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D38">
         <v>6</v>
@@ -6977,7 +6818,7 @@
         <v>140.34909999999999</v>
       </c>
       <c r="BK38" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:63" x14ac:dyDescent="0.3">
@@ -6985,10 +6826,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D39">
         <v>6</v>
@@ -7123,7 +6964,7 @@
         <v>139.97210000000001</v>
       </c>
       <c r="BK39" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:63" x14ac:dyDescent="0.3">
@@ -7131,10 +6972,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C40" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D40">
         <v>6</v>
@@ -7269,7 +7110,7 @@
         <v>120.1983</v>
       </c>
       <c r="BK40" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:63" x14ac:dyDescent="0.3">
@@ -7277,10 +7118,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D41">
         <v>6</v>
@@ -7415,7 +7256,7 @@
         <v>114.7286</v>
       </c>
       <c r="BK41" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:63" x14ac:dyDescent="0.3">
@@ -7423,10 +7264,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D42">
         <v>6</v>
@@ -7588,7 +7429,7 @@
         <v>51.6143</v>
       </c>
       <c r="BK42" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:63" x14ac:dyDescent="0.3">
@@ -7596,10 +7437,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D43">
         <v>6</v>
@@ -7761,7 +7602,7 @@
         <v>50.044899999999998</v>
       </c>
       <c r="BK43" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:63" x14ac:dyDescent="0.3">
@@ -7769,10 +7610,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D44">
         <v>6</v>
@@ -7934,7 +7775,7 @@
         <v>32.2774</v>
       </c>
       <c r="BK44" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:63" x14ac:dyDescent="0.3">
@@ -7942,10 +7783,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D45">
         <v>6</v>
@@ -8089,7 +7930,7 @@
         <v>26.6435</v>
       </c>
       <c r="BK45" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:63" x14ac:dyDescent="0.3">
@@ -8097,10 +7938,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D46">
         <v>6</v>
@@ -8244,7 +8085,7 @@
         <v>107.498</v>
       </c>
       <c r="BK46" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:63" x14ac:dyDescent="0.3">
@@ -8252,10 +8093,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D47">
         <v>6</v>
@@ -8390,7 +8231,7 @@
         <v>127.8416</v>
       </c>
       <c r="BK47" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:63" x14ac:dyDescent="0.3">
@@ -8398,10 +8239,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="C48" t="s">
-        <v>118</v>
+        <v>62</v>
       </c>
       <c r="D48">
         <v>6</v>
@@ -8536,7 +8377,7 @@
         <v>117.4799</v>
       </c>
       <c r="BK48" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/examples/VASP_to_thermdat/example2/input_data.xlsx
+++ b/examples/VASP_to_thermdat/example2/input_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\UDel Documents\UDel Research\Github\PyMuTT\examples\VASP_to_thermdat\example2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CB3863-E4CD-4B71-829F-21492CFDD6A8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D22D83-37CF-4C01-AB4A-60247D91BFD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" xr2:uid="{06EF0325-FA90-4E6F-AA64-1284C03694B0}"/>
   </bookViews>
@@ -205,9 +205,6 @@
 Kpoints: 3*3*1</t>
   </si>
   <si>
-    <t>thermo_model</t>
-  </si>
-  <si>
     <t>phase</t>
   </si>
   <si>
@@ -239,6 +236,9 @@
   </si>
   <si>
     <t>vib_wavenumber</t>
+  </si>
+  <si>
+    <t>statmech_model</t>
   </si>
 </sst>
 </file>
@@ -604,10 +604,10 @@
   <dimension ref="A1:BK48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="J3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T1" sqref="T1"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -621,187 +621,187 @@
         <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>49</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AQ1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AU1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AX1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BA1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BB1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BI1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="BK1" s="1" t="s">
         <v>54</v>
@@ -812,10 +812,10 @@
         <v>47</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>51</v>
@@ -827,10 +827,10 @@
         <v>52</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>53</v>
@@ -1003,10 +1003,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3">
         <v>6</v>
@@ -1140,10 +1140,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4">
         <v>6</v>
@@ -1277,10 +1277,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5">
         <v>6</v>
@@ -1414,10 +1414,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D6">
         <v>6</v>
@@ -1605,10 +1605,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -1796,10 +1796,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -1978,10 +1978,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D9">
         <v>6</v>
@@ -2160,10 +2160,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10">
         <v>6</v>
@@ -2333,10 +2333,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -2506,10 +2506,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12">
         <v>6</v>
@@ -2679,10 +2679,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13">
         <v>6</v>
@@ -2852,10 +2852,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14">
         <v>6</v>
@@ -3025,10 +3025,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D15">
         <v>6</v>
@@ -3189,10 +3189,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16">
         <v>6</v>
@@ -3353,10 +3353,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17">
         <v>6</v>
@@ -3517,10 +3517,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18">
         <v>6</v>
@@ -3681,10 +3681,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19">
         <v>6</v>
@@ -3845,10 +3845,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20">
         <v>6</v>
@@ -4009,10 +4009,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21">
         <v>6</v>
@@ -4173,10 +4173,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22">
         <v>6</v>
@@ -4337,10 +4337,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23">
         <v>6</v>
@@ -4492,10 +4492,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D24">
         <v>6</v>
@@ -4647,10 +4647,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25">
         <v>6</v>
@@ -4802,10 +4802,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26">
         <v>6</v>
@@ -4957,10 +4957,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27">
         <v>6</v>
@@ -5112,10 +5112,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28">
         <v>6</v>
@@ -5276,10 +5276,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D29">
         <v>6</v>
@@ -5440,10 +5440,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D30">
         <v>6</v>
@@ -5595,10 +5595,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D31">
         <v>6</v>
@@ -5750,10 +5750,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D32">
         <v>6</v>
@@ -5905,10 +5905,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D33">
         <v>6</v>
@@ -6060,10 +6060,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D34">
         <v>6</v>
@@ -6215,10 +6215,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D35">
         <v>6</v>
@@ -6370,10 +6370,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D36">
         <v>6</v>
@@ -6525,10 +6525,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D37">
         <v>6</v>
@@ -6680,10 +6680,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D38">
         <v>6</v>
@@ -6826,10 +6826,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D39">
         <v>6</v>
@@ -6972,10 +6972,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D40">
         <v>6</v>
@@ -7118,10 +7118,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D41">
         <v>6</v>
@@ -7264,10 +7264,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D42">
         <v>6</v>
@@ -7437,10 +7437,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D43">
         <v>6</v>
@@ -7610,10 +7610,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D44">
         <v>6</v>
@@ -7783,10 +7783,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D45">
         <v>6</v>
@@ -7938,10 +7938,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D46">
         <v>6</v>
@@ -8093,10 +8093,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D47">
         <v>6</v>
@@ -8239,10 +8239,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D48">
         <v>6</v>
